--- a/Hackathon/Mini Hackathon 2/mark_mini-hackathon2.xlsx
+++ b/Hackathon/Mini Hackathon 2/mark_mini-hackathon2.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="60">
   <si>
     <t>Tổng điểm cuối</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - khi lấy input vào, nên thông báo cho người dùng. Và in ra list even 1 lần thôi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - chưa nộp</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1085,36 +1088,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1132,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1440,7 +1446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1790,7 +1796,7 @@
       </c>
       <c r="O13" s="53" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M13,"!A1")),CONCATENATE(INDIRECT("'"&amp;M13&amp;"'!C26"), "/",$I$12))</f>
-        <v>100/100</v>
+        <v>0/100</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>26</v>
@@ -1950,7 +1956,7 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1966,7 +1972,7 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -1979,7 +1985,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1992,7 +1998,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2007,7 +2013,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -2020,7 +2026,7 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -2035,7 +2041,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2052,7 +2058,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2071,7 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2084,7 @@
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2095,7 +2101,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2108,7 +2114,7 @@
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2123,7 +2129,7 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2142,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -2149,7 +2155,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2164,7 +2170,7 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -2177,7 +2183,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2192,7 +2198,7 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -2205,7 +2211,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2224,7 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2233,7 +2239,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -2246,10 +2252,10 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
         <v>94</v>
@@ -2329,7 +2335,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2345,7 +2351,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2365,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -2372,7 +2378,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2387,7 +2393,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2406,7 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2419,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2430,7 +2436,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -2443,7 +2449,7 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2458,7 +2464,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2475,7 +2481,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2490,7 +2496,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2505,7 +2511,7 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -2518,7 +2524,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +2537,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2543,12 +2549,12 @@
       <c r="D19" s="18">
         <v>5</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="78" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -2558,10 +2564,10 @@
       <c r="D20" s="17">
         <v>5</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="79"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2576,7 +2582,7 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -2589,7 +2595,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2608,7 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2617,7 +2623,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -2630,10 +2636,10 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
         <v>87</v>
@@ -2645,17 +2651,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2714,7 +2720,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2730,7 +2736,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -2743,7 +2749,7 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -2756,7 +2762,7 @@
       <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2771,7 +2777,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -2786,7 +2792,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +2807,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2818,7 +2824,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -2831,7 +2837,7 @@
       <c r="E12" s="82"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2844,7 +2850,7 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2861,7 +2867,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2874,7 +2880,7 @@
       <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2891,7 +2897,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -2904,7 +2910,7 @@
       <c r="E17" s="82"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -2917,7 +2923,7 @@
       <c r="E18" s="83"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2934,7 +2940,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -2947,7 +2953,7 @@
       <c r="E20" s="83"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2964,7 +2970,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -2977,7 +2983,7 @@
       <c r="E22" s="82"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -2990,7 +2996,7 @@
       <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3007,7 +3013,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -3020,10 +3026,10 @@
       <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f xml:space="preserve"> SUM(C5:C25)</f>
         <v>17</v>
@@ -3035,22 +3041,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3108,7 +3114,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3124,7 +3130,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -3137,7 +3143,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -3150,7 +3156,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3165,7 +3171,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -3178,7 +3184,7 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -3191,7 +3197,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3208,7 +3214,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -3221,7 +3227,7 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -3234,7 +3240,7 @@
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3249,7 +3255,7 @@
       <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -3264,7 +3270,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3279,7 +3285,7 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -3292,7 +3298,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -3305,7 +3311,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -3320,7 +3326,7 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -3333,7 +3339,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3348,7 +3354,7 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -3361,7 +3367,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -3374,7 +3380,7 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3389,7 +3395,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -3402,10 +3408,10 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
         <v>98</v>
@@ -3484,7 +3490,7 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3500,7 +3506,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -3513,7 +3519,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -3526,7 +3532,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3543,7 +3549,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -3558,7 +3564,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -3571,7 +3577,7 @@
       <c r="E10" s="83"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3588,7 +3594,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -3601,7 +3607,7 @@
       <c r="E12" s="82"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -3614,7 +3620,7 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3631,7 +3637,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -3644,7 +3650,7 @@
       <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3661,7 +3667,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -3674,7 +3680,7 @@
       <c r="E17" s="82"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -3687,7 +3693,7 @@
       <c r="E18" s="83"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -3704,7 +3710,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -3717,7 +3723,7 @@
       <c r="E20" s="83"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3734,7 +3740,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -3747,7 +3753,7 @@
       <c r="E22" s="82"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -3760,7 +3766,7 @@
       <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3777,7 +3783,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -3790,10 +3796,10 @@
       <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
         <v>11</v>
@@ -3805,16 +3811,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E9:E10"/>
@@ -3822,6 +3818,16 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3879,7 +3885,7 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3895,7 +3901,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -3910,7 +3916,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -3925,7 +3931,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3940,7 +3946,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -3955,7 +3961,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -3968,7 +3974,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3985,7 +3991,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -3998,7 +4004,7 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -4013,7 +4019,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4027,7 +4033,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -4042,7 +4048,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -4059,7 +4065,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -4072,7 +4078,7 @@
       <c r="E17" s="82"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -4085,7 +4091,7 @@
       <c r="E18" s="83"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -4102,7 +4108,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -4115,7 +4121,7 @@
       <c r="E20" s="83"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4132,7 +4138,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -4145,7 +4151,7 @@
       <c r="E22" s="82"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -4158,7 +4164,7 @@
       <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -4175,7 +4181,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -4188,10 +4194,10 @@
       <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
         <v>26</v>
@@ -4232,7 +4238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4277,303 +4285,305 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="23">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="84" t="s">
+        <v>59</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="32">
         <v>4</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="21">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="33">
         <v>5</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="19">
         <v>6</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="20">
         <v>5</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" s="21">
         <v>5</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="87"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <v>5</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="17">
         <v>5</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="87"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="16">
         <v>5</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="87"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="87"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="18">
         <v>5</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="87"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="17">
         <v>5</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="87"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="20">
         <v>3</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22" s="16">
         <v>7</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="87"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="16">
         <v>5</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" s="18">
         <v>5</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="87"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25" s="19">
         <v>5</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D26" s="39">
         <f>SUM(D5:D25)</f>
@@ -4581,7 +4591,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:B26"/>
@@ -4592,6 +4602,7 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E5:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4647,7 +4658,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4663,7 +4674,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -4676,7 +4687,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -4689,7 +4700,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -4704,7 +4715,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -4717,7 +4728,7 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -4730,7 +4741,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4747,7 +4758,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -4760,7 +4771,7 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -4773,7 +4784,7 @@
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4788,7 +4799,7 @@
       <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4812,7 @@
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -4816,7 +4827,7 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -4829,7 +4840,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -4842,7 +4853,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -4857,7 +4868,7 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -4870,7 +4881,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4885,7 +4896,7 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -4898,7 +4909,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -4911,7 +4922,7 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -4926,7 +4937,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -4939,10 +4950,10 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
         <v>100</v>
@@ -5021,7 +5032,7 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5037,7 +5048,7 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -5050,7 +5061,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -5063,7 +5074,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -5078,7 +5089,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
@@ -5093,7 +5104,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
@@ -5106,7 +5117,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5121,7 +5132,7 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -5134,7 +5145,7 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -5147,7 +5158,7 @@
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -5162,7 +5173,7 @@
       <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -5175,7 +5186,7 @@
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -5190,7 +5201,7 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
@@ -5203,7 +5214,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -5216,7 +5227,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -5231,7 +5242,7 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
@@ -5244,7 +5255,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -5259,7 +5270,7 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -5272,7 +5283,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -5285,7 +5296,7 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -5300,7 +5311,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
@@ -5313,10 +5324,10 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
+      <c r="A26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="38">
         <f>SUM(C5:C25)</f>
         <v>98</v>
